--- a/7/3/1/Composición de la deuda por sector tenedor 2008 a 2021 - Trimestral.xlsx
+++ b/7/3/1/Composición de la deuda por sector tenedor 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Serie</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,7 +2238,7 @@
         <v>2.8</v>
       </c>
       <c r="C53">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D53">
         <v>17.1</v>
@@ -2244,7 +2247,7 @@
         <v>0.4</v>
       </c>
       <c r="F53">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="G53">
         <v>8.5</v>
@@ -2257,6 +2260,38 @@
       </c>
       <c r="J53">
         <v>27.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>3.4</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>15.5</v>
+      </c>
+      <c r="E54">
+        <v>0.4</v>
+      </c>
+      <c r="F54">
+        <v>24.3</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>0.1</v>
+      </c>
+      <c r="I54">
+        <v>4.5</v>
+      </c>
+      <c r="J54">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
